--- a/Data_applied_inflation.xlsx
+++ b/Data_applied_inflation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D53B905-AA8B-40E0-8315-CDF30097153C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7708E4-C848-426E-B9A5-0A49C82E2C10}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -68,7 +68,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1802" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1801" uniqueCount="265">
   <si>
     <t>Date</t>
   </si>
@@ -1735,8 +1735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BC210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AO1" workbookViewId="0">
-      <selection activeCell="AX1" sqref="AX1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -34789,9 +34789,7 @@
       <c r="E210" s="1">
         <v>7.444375</v>
       </c>
-      <c r="F210" s="1" t="s">
-        <v>263</v>
-      </c>
+      <c r="F210" s="1"/>
       <c r="G210" s="1">
         <v>4.650614</v>
       </c>

--- a/Data_applied_inflation.xlsx
+++ b/Data_applied_inflation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9318D28C-D195-4643-8D5D-3B60628269DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B139757-44D6-4B36-A9BE-6892A76A0456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1152" yWindow="0" windowWidth="11688" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_applied_inflation" sheetId="2" r:id="rId1"/>
@@ -1535,7 +1535,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1577,9 +1579,7 @@
       <c r="B2" s="1">
         <v>13.94988</v>
       </c>
-      <c r="C2" s="1">
-        <v>5.8823530000000002</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1">
         <v>22.547080000000001</v>
       </c>
@@ -1647,9 +1647,7 @@
       <c r="B3" s="1">
         <v>12.164849999999999</v>
       </c>
-      <c r="C3" s="1">
-        <v>6.2536189999999996</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1">
         <v>19.693760000000001</v>
       </c>
@@ -1717,9 +1715,7 @@
       <c r="B4" s="1">
         <v>10.93224</v>
       </c>
-      <c r="C4" s="1">
-        <v>6.0814690000000002</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1">
         <v>15.09224</v>
       </c>
@@ -1787,9 +1783,7 @@
       <c r="B5" s="1">
         <v>9.9254429999999996</v>
       </c>
-      <c r="C5" s="1">
-        <v>5.4329369999999999</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1">
         <v>11.53444</v>
       </c>
@@ -1857,9 +1851,7 @@
       <c r="B6" s="1">
         <v>9.5669920000000008</v>
       </c>
-      <c r="C6" s="1">
-        <v>5.2222220000000004</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1">
         <v>12.21189</v>
       </c>
@@ -1927,9 +1919,7 @@
       <c r="B7" s="1">
         <v>9.4068170000000002</v>
       </c>
-      <c r="C7" s="1">
-        <v>4.3051769999999996</v>
-      </c>
+      <c r="C7" s="1"/>
       <c r="D7" s="1">
         <v>16.138559999999998</v>
       </c>
@@ -1997,9 +1987,7 @@
       <c r="B8" s="1">
         <v>9.5516570000000005</v>
       </c>
-      <c r="C8" s="1">
-        <v>3.7858299999999998</v>
-      </c>
+      <c r="C8" s="1"/>
       <c r="D8" s="1">
         <v>17.149480000000001</v>
       </c>
@@ -2067,9 +2055,7 @@
       <c r="B9" s="1">
         <v>9.9618479999999998</v>
       </c>
-      <c r="C9" s="1">
-        <v>3.7037040000000001</v>
-      </c>
+      <c r="C9" s="1"/>
       <c r="D9" s="1">
         <v>20.634150000000002</v>
       </c>
@@ -2137,9 +2123,7 @@
       <c r="B10" s="1">
         <v>9.021312</v>
       </c>
-      <c r="C10" s="1">
-        <v>3.8014779999999999</v>
-      </c>
+      <c r="C10" s="1"/>
       <c r="D10" s="1">
         <v>20.250920000000001</v>
       </c>
@@ -2207,9 +2191,7 @@
       <c r="B11" s="1">
         <v>9.8523169999999993</v>
       </c>
-      <c r="C11" s="1">
-        <v>3.8140019999999999</v>
-      </c>
+      <c r="C11" s="1"/>
       <c r="D11" s="1">
         <v>17.397369999999999</v>
       </c>
@@ -2277,9 +2259,7 @@
       <c r="B12" s="1">
         <v>9.9051010000000002</v>
       </c>
-      <c r="C12" s="1">
-        <v>3.8561749999999999</v>
-      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1">
         <v>17.101980000000001</v>
       </c>
@@ -2347,9 +2327,7 @@
       <c r="B13" s="1">
         <v>9.1942950000000003</v>
       </c>
-      <c r="C13" s="1">
-        <v>3.4679090000000001</v>
-      </c>
+      <c r="C13" s="1"/>
       <c r="D13" s="1">
         <v>14.21621</v>
       </c>
@@ -2417,9 +2395,7 @@
       <c r="B14" s="1">
         <v>9.2047819999999998</v>
       </c>
-      <c r="C14" s="1">
-        <v>3.001017</v>
-      </c>
+      <c r="C14" s="1"/>
       <c r="D14" s="1">
         <v>12.8704</v>
       </c>
@@ -2487,9 +2463,7 @@
       <c r="B15" s="1">
         <v>8.9871079999999992</v>
       </c>
-      <c r="C15" s="1">
-        <v>2.868646</v>
-      </c>
+      <c r="C15" s="1"/>
       <c r="D15" s="1">
         <v>12.08189</v>
       </c>
@@ -2557,9 +2531,7 @@
       <c r="B16" s="1">
         <v>9.3002339999999997</v>
       </c>
-      <c r="C16" s="1">
-        <v>2.5087809999999999</v>
-      </c>
+      <c r="C16" s="1"/>
       <c r="D16" s="1">
         <v>11.92351</v>
       </c>
@@ -2627,9 +2599,7 @@
       <c r="B17" s="1">
         <v>9.4969110000000008</v>
       </c>
-      <c r="C17" s="1">
-        <v>2.5012509999999999</v>
-      </c>
+      <c r="C17" s="1"/>
       <c r="D17" s="1">
         <v>11.564629999999999</v>
       </c>
@@ -2697,9 +2667,7 @@
       <c r="B18" s="1">
         <v>10.149459999999999</v>
       </c>
-      <c r="C18" s="1">
-        <v>2.9135800000000001</v>
-      </c>
+      <c r="C18" s="1"/>
       <c r="D18" s="1">
         <v>12.914350000000001</v>
       </c>
@@ -2767,9 +2735,7 @@
       <c r="B19" s="1">
         <v>10.12166</v>
       </c>
-      <c r="C19" s="1">
-        <v>3.2778860000000001</v>
-      </c>
+      <c r="C19" s="1"/>
       <c r="D19" s="1">
         <v>13.583740000000001</v>
       </c>
@@ -2837,9 +2803,7 @@
       <c r="B20" s="1">
         <v>10.730740000000001</v>
       </c>
-      <c r="C20" s="1">
-        <v>4.6500240000000002</v>
-      </c>
+      <c r="C20" s="1"/>
       <c r="D20" s="1">
         <v>14.798999999999999</v>
       </c>
@@ -2907,9 +2871,7 @@
       <c r="B21" s="1">
         <v>11.526680000000001</v>
       </c>
-      <c r="C21" s="1">
-        <v>5.3196680000000001</v>
-      </c>
+      <c r="C21" s="1"/>
       <c r="D21" s="1">
         <v>17.682929999999999</v>
       </c>
@@ -2977,9 +2939,7 @@
       <c r="B22" s="1">
         <v>13.31536</v>
       </c>
-      <c r="C22" s="1">
-        <v>5.5182339999999996</v>
-      </c>
+      <c r="C22" s="1"/>
       <c r="D22" s="1">
         <v>20.64349</v>
       </c>
@@ -3047,9 +3007,7 @@
       <c r="B23" s="1">
         <v>13.71311</v>
       </c>
-      <c r="C23" s="1">
-        <v>5.9213639999999996</v>
-      </c>
+      <c r="C23" s="1"/>
       <c r="D23" s="1">
         <v>20.905999999999999</v>
       </c>
@@ -3117,9 +3075,7 @@
       <c r="B24" s="1">
         <v>13.621689999999999</v>
       </c>
-      <c r="C24" s="1">
-        <v>5.1917679999999997</v>
-      </c>
+      <c r="C24" s="1"/>
       <c r="D24" s="1">
         <v>21.79908</v>
       </c>
@@ -3187,9 +3143,7 @@
       <c r="B25" s="1">
         <v>13.58977</v>
       </c>
-      <c r="C25" s="1">
-        <v>5.1436510000000002</v>
-      </c>
+      <c r="C25" s="1"/>
       <c r="D25" s="1">
         <v>20.884229999999999</v>
       </c>
@@ -3257,9 +3211,7 @@
       <c r="B26" s="1">
         <v>12.670629999999999</v>
       </c>
-      <c r="C26" s="1">
-        <v>5.7298770000000001</v>
-      </c>
+      <c r="C26" s="1"/>
       <c r="D26" s="1">
         <v>18.34441</v>
       </c>
@@ -3327,9 +3279,7 @@
       <c r="B27" s="1">
         <v>12.78833</v>
       </c>
-      <c r="C27" s="1">
-        <v>5.8139529999999997</v>
-      </c>
+      <c r="C27" s="1"/>
       <c r="D27" s="1">
         <v>18.914200000000001</v>
       </c>
@@ -3397,9 +3347,7 @@
       <c r="B28" s="1">
         <v>13.613939999999999</v>
       </c>
-      <c r="C28" s="1">
-        <v>6.6696309999999999</v>
-      </c>
+      <c r="C28" s="1"/>
       <c r="D28" s="1">
         <v>17.47437</v>
       </c>
@@ -3467,9 +3415,7 @@
       <c r="B29" s="1">
         <v>14.10749</v>
       </c>
-      <c r="C29" s="1">
-        <v>7.1397089999999999</v>
-      </c>
+      <c r="C29" s="1"/>
       <c r="D29" s="1">
         <v>17.246369999999999</v>
       </c>
@@ -3537,9 +3483,7 @@
       <c r="B30" s="1">
         <v>13.9795</v>
       </c>
-      <c r="C30" s="1">
-        <v>5.8924729999999998</v>
-      </c>
+      <c r="C30" s="1"/>
       <c r="D30" s="1">
         <v>17.021920000000001</v>
       </c>
@@ -3607,9 +3551,7 @@
       <c r="B31" s="1">
         <v>13.74436</v>
       </c>
-      <c r="C31" s="1">
-        <v>5.3677089999999996</v>
-      </c>
+      <c r="C31" s="1"/>
       <c r="D31" s="1">
         <v>15.46866</v>
       </c>
@@ -3677,9 +3619,7 @@
       <c r="B32" s="1">
         <v>10.99855</v>
       </c>
-      <c r="C32" s="1">
-        <v>5.0854520000000001</v>
-      </c>
+      <c r="C32" s="1"/>
       <c r="D32" s="1">
         <v>16.7225</v>
       </c>
@@ -3747,9 +3687,7 @@
       <c r="B33" s="1">
         <v>9.4757499999999997</v>
       </c>
-      <c r="C33" s="1">
-        <v>4.6482929999999998</v>
-      </c>
+      <c r="C33" s="1"/>
       <c r="D33" s="1">
         <v>16.706700000000001</v>
       </c>
@@ -3817,9 +3755,7 @@
       <c r="B34" s="1">
         <v>9.2668300000000006</v>
       </c>
-      <c r="C34" s="1">
-        <v>4.0617380000000001</v>
-      </c>
+      <c r="C34" s="1"/>
       <c r="D34" s="1">
         <v>16.136479999999999</v>
       </c>
@@ -3887,9 +3823,7 @@
       <c r="B35" s="1">
         <v>8.9635110000000005</v>
       </c>
-      <c r="C35" s="1">
-        <v>3.2892100000000002</v>
-      </c>
+      <c r="C35" s="1"/>
       <c r="D35" s="1">
         <v>15.98606</v>
       </c>
@@ -3957,9 +3891,7 @@
       <c r="B36" s="1">
         <v>9.752281</v>
       </c>
-      <c r="C36" s="1">
-        <v>3.133677</v>
-      </c>
+      <c r="C36" s="1"/>
       <c r="D36" s="1">
         <v>13.96795</v>
       </c>
@@ -4027,9 +3959,7 @@
       <c r="B37" s="1">
         <v>9.8335469999999994</v>
       </c>
-      <c r="C37" s="1">
-        <v>2.7122639999999998</v>
-      </c>
+      <c r="C37" s="1"/>
       <c r="D37" s="1">
         <v>12.73725</v>
       </c>
@@ -4097,9 +4027,7 @@
       <c r="B38" s="1">
         <v>8.8301320000000008</v>
       </c>
-      <c r="C38" s="1">
-        <v>2.8493360000000001</v>
-      </c>
+      <c r="C38" s="1"/>
       <c r="D38" s="1">
         <v>12.08306</v>
       </c>
@@ -4167,9 +4095,7 @@
       <c r="B39" s="1">
         <v>7.789371</v>
       </c>
-      <c r="C39" s="1">
-        <v>2.8349510000000002</v>
-      </c>
+      <c r="C39" s="1"/>
       <c r="D39" s="1">
         <v>11.39974</v>
       </c>
@@ -4237,9 +4163,7 @@
       <c r="B40" s="1">
         <v>7.317653</v>
       </c>
-      <c r="C40" s="1">
-        <v>1.8846149999999999</v>
-      </c>
+      <c r="C40" s="1"/>
       <c r="D40" s="1">
         <v>10.472189999999999</v>
       </c>
@@ -4307,9 +4231,7 @@
       <c r="B41" s="1">
         <v>6.831429</v>
       </c>
-      <c r="C41" s="1">
-        <v>2.0665900000000001</v>
-      </c>
+      <c r="C41" s="1"/>
       <c r="D41" s="1">
         <v>9.3509130000000003</v>
       </c>
@@ -4377,9 +4299,7 @@
       <c r="B42" s="1">
         <v>6.4405229999999998</v>
       </c>
-      <c r="C42" s="1">
-        <v>2.314991</v>
-      </c>
+      <c r="C42" s="1"/>
       <c r="D42" s="1">
         <v>9.3364370000000001</v>
       </c>
@@ -4447,9 +4367,7 @@
       <c r="B43" s="1">
         <v>6.4610529999999997</v>
       </c>
-      <c r="C43" s="1">
-        <v>2.3036249999999998</v>
-      </c>
+      <c r="C43" s="1"/>
       <c r="D43" s="1">
         <v>9.4440030000000004</v>
       </c>
@@ -4517,9 +4435,7 @@
       <c r="B44" s="1">
         <v>5.6674790000000002</v>
       </c>
-      <c r="C44" s="1">
-        <v>2.0762550000000002</v>
-      </c>
+      <c r="C44" s="1"/>
       <c r="D44" s="1">
         <v>9.1500789999999999</v>
       </c>
@@ -4587,9 +4503,7 @@
       <c r="B45" s="1">
         <v>4.8013969999999997</v>
       </c>
-      <c r="C45" s="1">
-        <v>1.574803</v>
-      </c>
+      <c r="C45" s="1"/>
       <c r="D45" s="1">
         <v>8.9087209999999999</v>
       </c>
@@ -4657,9 +4571,7 @@
       <c r="B46" s="1">
         <v>3.5314380000000001</v>
       </c>
-      <c r="C46" s="1">
-        <v>0.74183980000000005</v>
-      </c>
+      <c r="C46" s="1"/>
       <c r="D46" s="1">
         <v>7.4785589999999997</v>
       </c>
@@ -4727,9 +4639,7 @@
       <c r="B47" s="1">
         <v>2.4106580000000002</v>
       </c>
-      <c r="C47" s="1">
-        <v>0</v>
-      </c>
+      <c r="C47" s="1"/>
       <c r="D47" s="1">
         <v>6.0656840000000001</v>
       </c>
@@ -4797,9 +4707,7 @@
       <c r="B48" s="1">
         <v>2.0951179999999998</v>
       </c>
-      <c r="C48" s="1">
-        <v>-0.33284019999999997</v>
-      </c>
+      <c r="C48" s="1"/>
       <c r="D48" s="1">
         <v>5.4322619999999997</v>
       </c>
@@ -4867,9 +4775,7 @@
       <c r="B49" s="1">
         <v>2.1449400000000001</v>
       </c>
-      <c r="C49" s="1">
-        <v>-0.92284980000000005</v>
-      </c>
+      <c r="C49" s="1"/>
       <c r="D49" s="1">
         <v>4.4084279999999998</v>
       </c>
@@ -4937,9 +4843,7 @@
       <c r="B50" s="1">
         <v>3.2445919999999999</v>
       </c>
-      <c r="C50" s="1">
-        <v>-0.51546389999999997</v>
-      </c>
+      <c r="C50" s="1"/>
       <c r="D50" s="1">
         <v>4.2770510000000002</v>
       </c>
@@ -5007,9 +4911,7 @@
       <c r="B51" s="1">
         <v>3.3863310000000002</v>
       </c>
-      <c r="C51" s="1">
-        <v>3.6913990000000001E-2</v>
-      </c>
+      <c r="C51" s="1"/>
       <c r="D51" s="1">
         <v>4.423381</v>
       </c>
@@ -5077,9 +4979,7 @@
       <c r="B52" s="1">
         <v>3.3654829999999998</v>
       </c>
-      <c r="C52" s="1">
-        <v>0.51948050000000001</v>
-      </c>
+      <c r="C52" s="1"/>
       <c r="D52" s="1">
         <v>4.9010369999999996</v>
       </c>
@@ -5147,9 +5047,7 @@
       <c r="B53" s="1">
         <v>3.1600410000000001</v>
       </c>
-      <c r="C53" s="1">
-        <v>0.96870339999999999</v>
-      </c>
+      <c r="C53" s="1"/>
       <c r="D53" s="1">
         <v>5.371003</v>
       </c>
@@ -5217,9 +5115,7 @@
       <c r="B54" s="1">
         <v>2.417405</v>
       </c>
-      <c r="C54" s="1">
-        <v>0.96225019999999994</v>
-      </c>
+      <c r="C54" s="1"/>
       <c r="D54" s="1">
         <v>5.1423329999999998</v>
       </c>
@@ -5287,9 +5183,7 @@
       <c r="B55" s="1">
         <v>2.5364490000000002</v>
       </c>
-      <c r="C55" s="1">
-        <v>1.1439109999999999</v>
-      </c>
+      <c r="C55" s="1"/>
       <c r="D55" s="1">
         <v>5.0226930000000003</v>
       </c>
@@ -5357,9 +5251,7 @@
       <c r="B56" s="1">
         <v>2.838991</v>
       </c>
-      <c r="C56" s="1">
-        <v>1.29199</v>
-      </c>
+      <c r="C56" s="1"/>
       <c r="D56" s="1">
         <v>4.9715490000000004</v>
       </c>
@@ -5427,9 +5319,7 @@
       <c r="B57" s="1">
         <v>3.0039530000000001</v>
       </c>
-      <c r="C57" s="1">
-        <v>1.697417</v>
-      </c>
+      <c r="C57" s="1"/>
       <c r="D57" s="1">
         <v>5.0972299999999997</v>
       </c>
@@ -5497,9 +5387,7 @@
       <c r="B58" s="1">
         <v>3.3831630000000001</v>
       </c>
-      <c r="C58" s="1">
-        <v>2.4193549999999999</v>
-      </c>
+      <c r="C58" s="1"/>
       <c r="D58" s="1">
         <v>5.8515280000000001</v>
       </c>
@@ -5567,9 +5455,7 @@
       <c r="B59" s="1">
         <v>3.622906</v>
       </c>
-      <c r="C59" s="1">
-        <v>2.8821599999999998</v>
-      </c>
+      <c r="C59" s="1"/>
       <c r="D59" s="1">
         <v>6.4534719999999997</v>
       </c>
@@ -5637,9 +5523,7 @@
       <c r="B60" s="1">
         <v>3.3976829999999998</v>
       </c>
-      <c r="C60" s="1">
-        <v>2.8061229999999999</v>
-      </c>
+      <c r="C60" s="1"/>
       <c r="D60" s="1">
         <v>6.3908699999999996</v>
       </c>
@@ -5707,9 +5591,7 @@
       <c r="B61" s="1">
         <v>3.5878739999999998</v>
       </c>
-      <c r="C61" s="1">
-        <v>3.0116109999999998</v>
-      </c>
+      <c r="C61" s="1"/>
       <c r="D61" s="1">
         <v>6.3358559999999997</v>
       </c>
@@ -5777,9 +5659,7 @@
       <c r="B62" s="1">
         <v>3.3670179999999998</v>
       </c>
-      <c r="C62" s="1">
-        <v>2.7201140000000001</v>
-      </c>
+      <c r="C62" s="1"/>
       <c r="D62" s="1">
         <v>6.4631460000000001</v>
       </c>
@@ -5847,9 +5727,7 @@
       <c r="B63" s="1">
         <v>3.023542</v>
       </c>
-      <c r="C63" s="1">
-        <v>2.3049650000000002</v>
-      </c>
+      <c r="C63" s="1"/>
       <c r="D63" s="1">
         <v>6.0893100000000002</v>
       </c>
@@ -5917,9 +5795,7 @@
       <c r="B64" s="1">
         <v>3.0929980000000001</v>
       </c>
-      <c r="C64" s="1">
-        <v>2.7295280000000002</v>
-      </c>
+      <c r="C64" s="1"/>
       <c r="D64" s="1">
         <v>6.5433089999999998</v>
       </c>
@@ -5987,9 +5863,7 @@
       <c r="B65" s="1">
         <v>3.2948409999999999</v>
       </c>
-      <c r="C65" s="1">
-        <v>3.029236</v>
-      </c>
+      <c r="C65" s="1"/>
       <c r="D65" s="1">
         <v>6.7229099999999997</v>
       </c>

--- a/Data_applied_inflation.xlsx
+++ b/Data_applied_inflation.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5B139757-44D6-4B36-A9BE-6892A76A0456}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B6C700-73BC-4B1B-AE3E-6827F20AAE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1152" yWindow="0" windowWidth="11688" windowHeight="12240" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Data_applied_inflation" sheetId="2" r:id="rId1"/>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="E2" sqref="E2:E81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1580,12 +1580,8 @@
         <v>13.94988</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1">
-        <v>22.547080000000001</v>
-      </c>
-      <c r="E2" s="1">
-        <v>18.714120000000001</v>
-      </c>
+      <c r="D2" s="1"/>
+      <c r="E2" s="1"/>
       <c r="F2" s="1">
         <v>15.16057</v>
       </c>
@@ -1648,12 +1644,8 @@
         <v>12.164849999999999</v>
       </c>
       <c r="C3" s="1"/>
-      <c r="D3" s="1">
-        <v>19.693760000000001</v>
-      </c>
-      <c r="E3" s="1">
-        <v>17.195029999999999</v>
-      </c>
+      <c r="D3" s="1"/>
+      <c r="E3" s="1"/>
       <c r="F3" s="1">
         <v>13.22373</v>
       </c>
@@ -1716,12 +1708,8 @@
         <v>10.93224</v>
       </c>
       <c r="C4" s="1"/>
-      <c r="D4" s="1">
-        <v>15.09224</v>
-      </c>
-      <c r="E4" s="1">
-        <v>17.467849999999999</v>
-      </c>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1"/>
       <c r="F4" s="1">
         <v>10.3377</v>
       </c>
@@ -1784,12 +1772,8 @@
         <v>9.9254429999999996</v>
       </c>
       <c r="C5" s="1"/>
-      <c r="D5" s="1">
-        <v>11.53444</v>
-      </c>
-      <c r="E5" s="1">
-        <v>14.69669</v>
-      </c>
+      <c r="D5" s="1"/>
+      <c r="E5" s="1"/>
       <c r="F5" s="1">
         <v>8.664021</v>
       </c>
@@ -1852,12 +1836,8 @@
         <v>9.5669920000000008</v>
       </c>
       <c r="C6" s="1"/>
-      <c r="D6" s="1">
-        <v>12.21189</v>
-      </c>
-      <c r="E6" s="1">
-        <v>14.619949999999999</v>
-      </c>
+      <c r="D6" s="1"/>
+      <c r="E6" s="1"/>
       <c r="F6" s="1">
         <v>9.0142670000000003</v>
       </c>
@@ -1920,12 +1900,8 @@
         <v>9.4068170000000002</v>
       </c>
       <c r="C7" s="1"/>
-      <c r="D7" s="1">
-        <v>16.138559999999998</v>
-      </c>
-      <c r="E7" s="1">
-        <v>18.461369999999999</v>
-      </c>
+      <c r="D7" s="1"/>
+      <c r="E7" s="1"/>
       <c r="F7" s="1">
         <v>9.4065659999999998</v>
       </c>
@@ -1988,12 +1964,8 @@
         <v>9.5516570000000005</v>
       </c>
       <c r="C8" s="1"/>
-      <c r="D8" s="1">
-        <v>17.149480000000001</v>
-      </c>
-      <c r="E8" s="1">
-        <v>17.440799999999999</v>
-      </c>
+      <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
       <c r="F8" s="1">
         <v>9.6814490000000006</v>
       </c>
@@ -2056,12 +2028,8 @@
         <v>9.9618479999999998</v>
       </c>
       <c r="C9" s="1"/>
-      <c r="D9" s="1">
-        <v>20.634150000000002</v>
-      </c>
-      <c r="E9" s="1">
-        <v>19.746739999999999</v>
-      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
       <c r="F9" s="1">
         <v>9.4339619999999993</v>
       </c>
@@ -2124,12 +2092,8 @@
         <v>9.021312</v>
       </c>
       <c r="C10" s="1"/>
-      <c r="D10" s="1">
-        <v>20.250920000000001</v>
-      </c>
-      <c r="E10" s="1">
-        <v>22.54908</v>
-      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
       <c r="F10" s="1">
         <v>9.3396790000000003</v>
       </c>
@@ -2192,12 +2156,8 @@
         <v>9.8523169999999993</v>
       </c>
       <c r="C11" s="1"/>
-      <c r="D11" s="1">
-        <v>17.397369999999999</v>
-      </c>
-      <c r="E11" s="1">
-        <v>20.934950000000001</v>
-      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
       <c r="F11" s="1">
         <v>8.9440279999999994</v>
       </c>
@@ -2260,12 +2220,8 @@
         <v>9.9051010000000002</v>
       </c>
       <c r="C12" s="1"/>
-      <c r="D12" s="1">
-        <v>17.101980000000001</v>
-      </c>
-      <c r="E12" s="1">
-        <v>27.239319999999999</v>
-      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
       <c r="F12" s="1">
         <v>7.9726650000000001</v>
       </c>
@@ -2328,12 +2284,8 @@
         <v>9.1942950000000003</v>
       </c>
       <c r="C13" s="1"/>
-      <c r="D13" s="1">
-        <v>14.21621</v>
-      </c>
-      <c r="E13" s="1">
-        <v>27.031389999999998</v>
-      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
       <c r="F13" s="1">
         <v>6.451613</v>
       </c>
@@ -2396,12 +2348,8 @@
         <v>9.2047819999999998</v>
       </c>
       <c r="C14" s="1"/>
-      <c r="D14" s="1">
-        <v>12.8704</v>
-      </c>
-      <c r="E14" s="1">
-        <v>23.47663</v>
-      </c>
+      <c r="D14" s="1"/>
+      <c r="E14" s="1"/>
       <c r="F14" s="1">
         <v>4.6789990000000001</v>
       </c>
@@ -2464,12 +2412,8 @@
         <v>8.9871079999999992</v>
       </c>
       <c r="C15" s="1"/>
-      <c r="D15" s="1">
-        <v>12.08189</v>
-      </c>
-      <c r="E15" s="1">
-        <v>22.108429999999998</v>
-      </c>
+      <c r="D15" s="1"/>
+      <c r="E15" s="1"/>
       <c r="F15" s="1">
         <v>4.0254240000000001</v>
       </c>
@@ -2532,12 +2476,8 @@
         <v>9.3002339999999997</v>
       </c>
       <c r="C16" s="1"/>
-      <c r="D16" s="1">
-        <v>11.92351</v>
-      </c>
-      <c r="E16" s="1">
-        <v>18.055499999999999</v>
-      </c>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
       <c r="F16" s="1">
         <v>4.377637</v>
       </c>
@@ -2600,12 +2540,8 @@
         <v>9.4969110000000008</v>
       </c>
       <c r="C17" s="1"/>
-      <c r="D17" s="1">
-        <v>11.564629999999999</v>
-      </c>
-      <c r="E17" s="1">
-        <v>16.249770000000002</v>
-      </c>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
       <c r="F17" s="1">
         <v>3.7095090000000002</v>
       </c>
@@ -2668,12 +2604,8 @@
         <v>10.149459999999999</v>
       </c>
       <c r="C18" s="1"/>
-      <c r="D18" s="1">
-        <v>12.914350000000001</v>
-      </c>
-      <c r="E18" s="1">
-        <v>16.42484</v>
-      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
       <c r="F18" s="1">
         <v>3.0145529999999998</v>
       </c>
@@ -2736,12 +2668,8 @@
         <v>10.12166</v>
       </c>
       <c r="C19" s="1"/>
-      <c r="D19" s="1">
-        <v>13.583740000000001</v>
-      </c>
-      <c r="E19" s="1">
-        <v>15.56095</v>
-      </c>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
       <c r="F19" s="1">
         <v>3.3095720000000002</v>
       </c>
@@ -2804,12 +2732,8 @@
         <v>10.730740000000001</v>
       </c>
       <c r="C20" s="1"/>
-      <c r="D20" s="1">
-        <v>14.798999999999999</v>
-      </c>
-      <c r="E20" s="1">
-        <v>15.12745</v>
-      </c>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
       <c r="F20" s="1">
         <v>3.5876709999999998</v>
       </c>
@@ -2872,12 +2796,8 @@
         <v>11.526680000000001</v>
       </c>
       <c r="C21" s="1"/>
-      <c r="D21" s="1">
-        <v>17.682929999999999</v>
-      </c>
-      <c r="E21" s="1">
-        <v>15.589829999999999</v>
-      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
       <c r="F21" s="1">
         <v>4.987406</v>
       </c>
@@ -2940,12 +2860,8 @@
         <v>13.31536</v>
       </c>
       <c r="C22" s="1"/>
-      <c r="D22" s="1">
-        <v>20.64349</v>
-      </c>
-      <c r="E22" s="1">
-        <v>16.665559999999999</v>
-      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
       <c r="F22" s="1">
         <v>7.2149340000000004</v>
       </c>
@@ -3008,12 +2924,8 @@
         <v>13.71311</v>
       </c>
       <c r="C23" s="1"/>
-      <c r="D23" s="1">
-        <v>20.905999999999999</v>
-      </c>
-      <c r="E23" s="1">
-        <v>15.5969</v>
-      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
       <c r="F23" s="1">
         <v>8.0827989999999996</v>
       </c>
@@ -3076,12 +2988,8 @@
         <v>13.621689999999999</v>
       </c>
       <c r="C24" s="1"/>
-      <c r="D24" s="1">
-        <v>21.79908</v>
-      </c>
-      <c r="E24" s="1">
-        <v>15.123889999999999</v>
-      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
       <c r="F24" s="1">
         <v>8.0975610000000007</v>
       </c>
@@ -3144,12 +3052,8 @@
         <v>13.58977</v>
       </c>
       <c r="C25" s="1"/>
-      <c r="D25" s="1">
-        <v>20.884229999999999</v>
-      </c>
-      <c r="E25" s="1">
-        <v>14.963900000000001</v>
-      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
       <c r="F25" s="1">
         <v>7.677543</v>
       </c>
@@ -3212,12 +3116,8 @@
         <v>12.670629999999999</v>
       </c>
       <c r="C26" s="1"/>
-      <c r="D26" s="1">
-        <v>18.34441</v>
-      </c>
-      <c r="E26" s="1">
-        <v>14.666</v>
-      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
       <c r="F26" s="1">
         <v>6.5882350000000001</v>
       </c>
@@ -3280,12 +3180,8 @@
         <v>12.78833</v>
       </c>
       <c r="C27" s="1"/>
-      <c r="D27" s="1">
-        <v>18.914200000000001</v>
-      </c>
-      <c r="E27" s="1">
-        <v>14.91212</v>
-      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
       <c r="F27" s="1">
         <v>4.9247610000000002</v>
       </c>
@@ -3348,12 +3244,8 @@
         <v>13.613939999999999</v>
       </c>
       <c r="C28" s="1"/>
-      <c r="D28" s="1">
-        <v>17.47437</v>
-      </c>
-      <c r="E28" s="1">
-        <v>14.268520000000001</v>
-      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
       <c r="F28" s="1">
         <v>4.1967509999999999</v>
       </c>
@@ -3416,12 +3308,8 @@
         <v>14.10749</v>
       </c>
       <c r="C29" s="1"/>
-      <c r="D29" s="1">
-        <v>17.246369999999999</v>
-      </c>
-      <c r="E29" s="1">
-        <v>14.37679</v>
-      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
       <c r="F29" s="1">
         <v>4.0998219999999996</v>
       </c>
@@ -3484,12 +3372,8 @@
         <v>13.9795</v>
       </c>
       <c r="C30" s="1"/>
-      <c r="D30" s="1">
-        <v>17.021920000000001</v>
-      </c>
-      <c r="E30" s="1">
-        <v>14.273759999999999</v>
-      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
       <c r="F30" s="1">
         <v>3.1346579999999999</v>
       </c>
@@ -3552,12 +3436,8 @@
         <v>13.74436</v>
       </c>
       <c r="C31" s="1"/>
-      <c r="D31" s="1">
-        <v>15.46866</v>
-      </c>
-      <c r="E31" s="1">
-        <v>15.06419</v>
-      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
       <c r="F31" s="1">
         <v>2.6075620000000002</v>
       </c>
@@ -3620,12 +3500,8 @@
         <v>10.99855</v>
       </c>
       <c r="C32" s="1"/>
-      <c r="D32" s="1">
-        <v>16.7225</v>
-      </c>
-      <c r="E32" s="1">
-        <v>14.673959999999999</v>
-      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
       <c r="F32" s="1">
         <v>2.771763</v>
       </c>
@@ -3688,12 +3564,8 @@
         <v>9.4757499999999997</v>
       </c>
       <c r="C33" s="1"/>
-      <c r="D33" s="1">
-        <v>16.706700000000001</v>
-      </c>
-      <c r="E33" s="1">
-        <v>13.683630000000001</v>
-      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
       <c r="F33" s="1">
         <v>2.4828769999999998</v>
       </c>
@@ -3756,12 +3628,8 @@
         <v>9.2668300000000006</v>
       </c>
       <c r="C34" s="1"/>
-      <c r="D34" s="1">
-        <v>16.136479999999999</v>
-      </c>
-      <c r="E34" s="1">
-        <v>13.23063</v>
-      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
       <c r="F34" s="1">
         <v>2.1404109999999998</v>
       </c>
@@ -3824,12 +3692,8 @@
         <v>8.9635110000000005</v>
       </c>
       <c r="C35" s="1"/>
-      <c r="D35" s="1">
-        <v>15.98606</v>
-      </c>
-      <c r="E35" s="1">
-        <v>12.00291</v>
-      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
       <c r="F35" s="1">
         <v>2.244812</v>
       </c>
@@ -3892,12 +3756,8 @@
         <v>9.752281</v>
       </c>
       <c r="C36" s="1"/>
-      <c r="D36" s="1">
-        <v>13.96795</v>
-      </c>
-      <c r="E36" s="1">
-        <v>11.05841</v>
-      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
       <c r="F36" s="1">
         <v>1.474926</v>
       </c>
@@ -3960,12 +3820,8 @@
         <v>9.8335469999999994</v>
       </c>
       <c r="C37" s="1"/>
-      <c r="D37" s="1">
-        <v>12.73725</v>
-      </c>
-      <c r="E37" s="1">
-        <v>12.45834</v>
-      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
       <c r="F37" s="1">
         <v>1.670844</v>
       </c>
@@ -4028,12 +3884,8 @@
         <v>8.8301320000000008</v>
       </c>
       <c r="C38" s="1"/>
-      <c r="D38" s="1">
-        <v>12.08306</v>
-      </c>
-      <c r="E38" s="1">
-        <v>12.04914</v>
-      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
       <c r="F38" s="1">
         <v>2.430847</v>
       </c>
@@ -4096,12 +3948,8 @@
         <v>7.789371</v>
       </c>
       <c r="C39" s="1"/>
-      <c r="D39" s="1">
-        <v>11.39974</v>
-      </c>
-      <c r="E39" s="1">
-        <v>11.291270000000001</v>
-      </c>
+      <c r="D39" s="1"/>
+      <c r="E39" s="1"/>
       <c r="F39" s="1">
         <v>2.0298259999999999</v>
       </c>
@@ -4164,12 +4012,8 @@
         <v>7.317653</v>
       </c>
       <c r="C40" s="1"/>
-      <c r="D40" s="1">
-        <v>10.472189999999999</v>
-      </c>
-      <c r="E40" s="1">
-        <v>12.030609999999999</v>
-      </c>
+      <c r="D40" s="1"/>
+      <c r="E40" s="1"/>
       <c r="F40" s="1">
         <v>2.2425250000000001</v>
       </c>
@@ -4232,12 +4076,8 @@
         <v>6.831429</v>
       </c>
       <c r="C41" s="1"/>
-      <c r="D41" s="1">
-        <v>9.3509130000000003</v>
-      </c>
-      <c r="E41" s="1">
-        <v>9.8353780000000004</v>
-      </c>
+      <c r="D41" s="1"/>
+      <c r="E41" s="1"/>
       <c r="F41" s="1">
         <v>2.3007399999999998</v>
       </c>
@@ -4300,12 +4140,8 @@
         <v>6.4405229999999998</v>
       </c>
       <c r="C42" s="1"/>
-      <c r="D42" s="1">
-        <v>9.3364370000000001</v>
-      </c>
-      <c r="E42" s="1">
-        <v>9.5478179999999995</v>
-      </c>
+      <c r="D42" s="1"/>
+      <c r="E42" s="1"/>
       <c r="F42" s="1">
         <v>2.0049100000000002</v>
       </c>
@@ -4368,12 +4204,8 @@
         <v>6.4610529999999997</v>
       </c>
       <c r="C43" s="1"/>
-      <c r="D43" s="1">
-        <v>9.4440030000000004</v>
-      </c>
-      <c r="E43" s="1">
-        <v>9.6624859999999995</v>
-      </c>
+      <c r="D43" s="1"/>
+      <c r="E43" s="1"/>
       <c r="F43" s="1">
         <v>2.1518470000000001</v>
       </c>
@@ -4436,12 +4268,8 @@
         <v>5.6674790000000002</v>
       </c>
       <c r="C44" s="1"/>
-      <c r="D44" s="1">
-        <v>9.1500789999999999</v>
-      </c>
-      <c r="E44" s="1">
-        <v>7.8358030000000003</v>
-      </c>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
       <c r="F44" s="1">
         <v>2.3558080000000001</v>
       </c>
@@ -4504,12 +4332,8 @@
         <v>4.8013969999999997</v>
       </c>
       <c r="C45" s="1"/>
-      <c r="D45" s="1">
-        <v>8.9087209999999999</v>
-      </c>
-      <c r="E45" s="1">
-        <v>8.2744499999999999</v>
-      </c>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
       <c r="F45" s="1">
         <v>1.6465860000000001</v>
       </c>
@@ -4572,12 +4396,8 @@
         <v>3.5314380000000001</v>
       </c>
       <c r="C46" s="1"/>
-      <c r="D46" s="1">
-        <v>7.4785589999999997</v>
-      </c>
-      <c r="E46" s="1">
-        <v>8.9468359999999993</v>
-      </c>
+      <c r="D46" s="1"/>
+      <c r="E46" s="1"/>
       <c r="F46" s="1">
         <v>1.5643800000000001</v>
       </c>
@@ -4640,12 +4460,8 @@
         <v>2.4106580000000002</v>
       </c>
       <c r="C47" s="1"/>
-      <c r="D47" s="1">
-        <v>6.0656840000000001</v>
-      </c>
-      <c r="E47" s="1">
-        <v>8.1604100000000006</v>
-      </c>
+      <c r="D47" s="1"/>
+      <c r="E47" s="1"/>
       <c r="F47" s="1">
         <v>0.87440379999999995</v>
       </c>
@@ -4708,12 +4524,8 @@
         <v>2.0951179999999998</v>
       </c>
       <c r="C48" s="1"/>
-      <c r="D48" s="1">
-        <v>5.4322619999999997</v>
-      </c>
-      <c r="E48" s="1">
-        <v>9.4725140000000003</v>
-      </c>
+      <c r="D48" s="1"/>
+      <c r="E48" s="1"/>
       <c r="F48" s="1">
         <v>0.23809520000000001</v>
       </c>
@@ -4776,12 +4588,8 @@
         <v>2.1449400000000001</v>
       </c>
       <c r="C49" s="1"/>
-      <c r="D49" s="1">
-        <v>4.4084279999999998</v>
-      </c>
-      <c r="E49" s="1">
-        <v>8.6015999999999995</v>
-      </c>
+      <c r="D49" s="1"/>
+      <c r="E49" s="1"/>
       <c r="F49" s="1">
         <v>-0.23706050000000001</v>
       </c>
@@ -4844,12 +4652,8 @@
         <v>3.2445919999999999</v>
       </c>
       <c r="C50" s="1"/>
-      <c r="D50" s="1">
-        <v>4.2770510000000002</v>
-      </c>
-      <c r="E50" s="1">
-        <v>6.1045999999999996</v>
-      </c>
+      <c r="D50" s="1"/>
+      <c r="E50" s="1"/>
       <c r="F50" s="1">
         <v>-0.82938389999999995</v>
       </c>
@@ -4912,12 +4716,8 @@
         <v>3.3863310000000002</v>
       </c>
       <c r="C51" s="1"/>
-      <c r="D51" s="1">
-        <v>4.423381</v>
-      </c>
-      <c r="E51" s="1">
-        <v>5.6513239999999998</v>
-      </c>
+      <c r="D51" s="1"/>
+      <c r="E51" s="1"/>
       <c r="F51" s="1">
         <v>0.15760440000000001</v>
       </c>
@@ -4980,12 +4780,8 @@
         <v>3.3654829999999998</v>
       </c>
       <c r="C52" s="1"/>
-      <c r="D52" s="1">
-        <v>4.9010369999999996</v>
-      </c>
-      <c r="E52" s="1">
-        <v>4.6331179999999996</v>
-      </c>
+      <c r="D52" s="1"/>
+      <c r="E52" s="1"/>
       <c r="F52" s="1">
         <v>0.4354711</v>
       </c>
@@ -5048,12 +4844,8 @@
         <v>3.1600410000000001</v>
       </c>
       <c r="C53" s="1"/>
-      <c r="D53" s="1">
-        <v>5.371003</v>
-      </c>
-      <c r="E53" s="1">
-        <v>4.6469449999999997</v>
-      </c>
+      <c r="D53" s="1"/>
+      <c r="E53" s="1"/>
       <c r="F53" s="1">
         <v>0.75247529999999996</v>
       </c>
@@ -5116,12 +4908,8 @@
         <v>2.417405</v>
       </c>
       <c r="C54" s="1"/>
-      <c r="D54" s="1">
-        <v>5.1423329999999998</v>
-      </c>
-      <c r="E54" s="1">
-        <v>4.4058820000000001</v>
-      </c>
+      <c r="D54" s="1"/>
+      <c r="E54" s="1"/>
       <c r="F54" s="1">
         <v>0.75667070000000003</v>
       </c>
@@ -5184,12 +4972,8 @@
         <v>2.5364490000000002</v>
       </c>
       <c r="C55" s="1"/>
-      <c r="D55" s="1">
-        <v>5.0226930000000003</v>
-      </c>
-      <c r="E55" s="1">
-        <v>4.0617660000000004</v>
-      </c>
+      <c r="D55" s="1"/>
+      <c r="E55" s="1"/>
       <c r="F55" s="1">
         <v>0.1966955</v>
       </c>
@@ -5252,12 +5036,8 @@
         <v>2.838991</v>
       </c>
       <c r="C56" s="1"/>
-      <c r="D56" s="1">
-        <v>4.9715490000000004</v>
-      </c>
-      <c r="E56" s="1">
-        <v>5.3789959999999999</v>
-      </c>
+      <c r="D56" s="1"/>
+      <c r="E56" s="1"/>
       <c r="F56" s="1">
         <v>0.59124949999999998</v>
       </c>
@@ -5320,12 +5100,8 @@
         <v>3.0039530000000001</v>
       </c>
       <c r="C57" s="1"/>
-      <c r="D57" s="1">
-        <v>5.0972299999999997</v>
-      </c>
-      <c r="E57" s="1">
-        <v>5.4769940000000004</v>
-      </c>
+      <c r="D57" s="1"/>
+      <c r="E57" s="1"/>
       <c r="F57" s="1">
         <v>1.061321</v>
       </c>
@@ -5388,12 +5164,8 @@
         <v>3.3831630000000001</v>
       </c>
       <c r="C58" s="1"/>
-      <c r="D58" s="1">
-        <v>5.8515280000000001</v>
-      </c>
-      <c r="E58" s="1">
-        <v>6.2244359999999999</v>
-      </c>
+      <c r="D58" s="1"/>
+      <c r="E58" s="1"/>
       <c r="F58" s="1">
         <v>1.067194</v>
       </c>
@@ -5456,12 +5228,8 @@
         <v>3.622906</v>
       </c>
       <c r="C59" s="1"/>
-      <c r="D59" s="1">
-        <v>6.4534719999999997</v>
-      </c>
-      <c r="E59" s="1">
-        <v>6.9098199999999999</v>
-      </c>
+      <c r="D59" s="1"/>
+      <c r="E59" s="1"/>
       <c r="F59" s="1">
         <v>2.7483309999999999</v>
       </c>
@@ -5524,12 +5292,8 @@
         <v>3.3976829999999998</v>
       </c>
       <c r="C60" s="1"/>
-      <c r="D60" s="1">
-        <v>6.3908699999999996</v>
-      </c>
-      <c r="E60" s="1">
-        <v>6.9165450000000002</v>
-      </c>
+      <c r="D60" s="1"/>
+      <c r="E60" s="1"/>
       <c r="F60" s="1">
         <v>2.742947</v>
       </c>
@@ -5592,12 +5356,8 @@
         <v>3.5878739999999998</v>
       </c>
       <c r="C61" s="1"/>
-      <c r="D61" s="1">
-        <v>6.3358559999999997</v>
-      </c>
-      <c r="E61" s="1">
-        <v>7.0980129999999999</v>
-      </c>
+      <c r="D61" s="1"/>
+      <c r="E61" s="1"/>
       <c r="F61" s="1">
         <v>2.6059899999999998</v>
       </c>
@@ -5660,12 +5420,8 @@
         <v>3.3670179999999998</v>
       </c>
       <c r="C62" s="1"/>
-      <c r="D62" s="1">
-        <v>6.4631460000000001</v>
-      </c>
-      <c r="E62" s="1">
-        <v>6.9932999999999996</v>
-      </c>
+      <c r="D62" s="1"/>
+      <c r="E62" s="1"/>
       <c r="F62" s="1">
         <v>3.5588579999999999</v>
       </c>
@@ -5728,12 +5484,8 @@
         <v>3.023542</v>
       </c>
       <c r="C63" s="1"/>
-      <c r="D63" s="1">
-        <v>6.0893100000000002</v>
-      </c>
-      <c r="E63" s="1">
-        <v>6.7646810000000004</v>
-      </c>
+      <c r="D63" s="1"/>
+      <c r="E63" s="1"/>
       <c r="F63" s="1">
         <v>2.560184</v>
       </c>
@@ -5796,12 +5548,8 @@
         <v>3.0929980000000001</v>
       </c>
       <c r="C64" s="1"/>
-      <c r="D64" s="1">
-        <v>6.5433089999999998</v>
-      </c>
-      <c r="E64" s="1">
-        <v>6.3971920000000004</v>
-      </c>
+      <c r="D64" s="1"/>
+      <c r="E64" s="1"/>
       <c r="F64" s="1">
         <v>2.555301</v>
       </c>
@@ -5864,12 +5612,8 @@
         <v>3.2948409999999999</v>
       </c>
       <c r="C65" s="1"/>
-      <c r="D65" s="1">
-        <v>6.7229099999999997</v>
-      </c>
-      <c r="E65" s="1">
-        <v>6.7422700000000004</v>
-      </c>
+      <c r="D65" s="1"/>
+      <c r="E65" s="1"/>
       <c r="F65" s="1">
         <v>3.601213</v>
       </c>
@@ -5934,12 +5678,8 @@
       <c r="C66" s="1">
         <v>2.8425150000000001</v>
       </c>
-      <c r="D66" s="1">
-        <v>6.3392059999999999</v>
-      </c>
-      <c r="E66" s="1">
-        <v>6.1850649999999998</v>
-      </c>
+      <c r="D66" s="1"/>
+      <c r="E66" s="1"/>
       <c r="F66" s="1">
         <v>3.7386710000000001</v>
       </c>
@@ -6004,12 +5744,8 @@
       <c r="C67" s="1">
         <v>3.2991600000000001</v>
       </c>
-      <c r="D67" s="1">
-        <v>6.5225929999999996</v>
-      </c>
-      <c r="E67" s="1">
-        <v>6.071828</v>
-      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
       <c r="F67" s="1">
         <v>3.3904619999999999</v>
       </c>
@@ -6074,12 +5810,8 @@
       <c r="C68" s="1">
         <v>4.5135180000000004</v>
       </c>
-      <c r="D68" s="1">
-        <v>6.3287019999999998</v>
-      </c>
-      <c r="E68" s="1">
-        <v>5.9228069999999997</v>
-      </c>
+      <c r="D68" s="1"/>
+      <c r="E68" s="1"/>
       <c r="F68" s="1">
         <v>3.1982149999999998</v>
       </c>
@@ -6144,12 +5876,8 @@
       <c r="C69" s="1">
         <v>5.5043730000000002</v>
       </c>
-      <c r="D69" s="1">
-        <v>5.8234769999999996</v>
-      </c>
-      <c r="E69" s="1">
-        <v>5.5737649999999999</v>
-      </c>
+      <c r="D69" s="1"/>
+      <c r="E69" s="1"/>
       <c r="F69" s="1">
         <v>2.7808269999999999</v>
       </c>
@@ -6214,12 +5942,8 @@
       <c r="C70" s="1">
         <v>5.9108530000000004</v>
       </c>
-      <c r="D70" s="1">
-        <v>5.6978239999999998</v>
-      </c>
-      <c r="E70" s="1">
-        <v>6.5506580000000003</v>
-      </c>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
       <c r="F70" s="1">
         <v>1.8929739999999999</v>
       </c>
@@ -6284,12 +6008,8 @@
       <c r="C71" s="1">
         <v>6.0940500000000002</v>
       </c>
-      <c r="D71" s="1">
-        <v>5.490691</v>
-      </c>
-      <c r="E71" s="1">
-        <v>6.3911709999999999</v>
-      </c>
+      <c r="D71" s="1"/>
+      <c r="E71" s="1"/>
       <c r="F71" s="1">
         <v>2.27027</v>
       </c>
@@ -6354,12 +6074,8 @@
       <c r="C72" s="1">
         <v>4.9575069999999997</v>
       </c>
-      <c r="D72" s="1">
-        <v>5.053026</v>
-      </c>
-      <c r="E72" s="1">
-        <v>5.5863950000000004</v>
-      </c>
+      <c r="D72" s="1"/>
+      <c r="E72" s="1"/>
       <c r="F72" s="1">
         <v>1.8018019999999999</v>
       </c>
@@ -6424,12 +6140,8 @@
       <c r="C73" s="1">
         <v>3.3364229999999999</v>
       </c>
-      <c r="D73" s="1">
-        <v>4.8600430000000001</v>
-      </c>
-      <c r="E73" s="1">
-        <v>5.2062670000000004</v>
-      </c>
+      <c r="D73" s="1"/>
+      <c r="E73" s="1"/>
       <c r="F73" s="1">
         <v>0.96119619999999995</v>
       </c>
@@ -6494,12 +6206,8 @@
       <c r="C74" s="1">
         <v>4.6660570000000003</v>
       </c>
-      <c r="D74" s="1">
-        <v>4.5729860000000002</v>
-      </c>
-      <c r="E74" s="1">
-        <v>4.230988</v>
-      </c>
+      <c r="D74" s="1"/>
+      <c r="E74" s="1"/>
       <c r="F74" s="1">
         <v>1.321901</v>
       </c>
@@ -6564,12 +6272,8 @@
       <c r="C75" s="1">
         <v>4.3871549999999999</v>
       </c>
-      <c r="D75" s="1">
-        <v>4.5468140000000004</v>
-      </c>
-      <c r="E75" s="1">
-        <v>4.6769420000000004</v>
-      </c>
+      <c r="D75" s="1"/>
+      <c r="E75" s="1"/>
       <c r="F75" s="1">
         <v>0.84566600000000003</v>
       </c>
@@ -6634,12 +6338,8 @@
       <c r="C76" s="1">
         <v>4.5434099999999997</v>
       </c>
-      <c r="D76" s="1">
-        <v>4.8099759999999998</v>
-      </c>
-      <c r="E76" s="1">
-        <v>4.5940149999999997</v>
-      </c>
+      <c r="D76" s="1"/>
+      <c r="E76" s="1"/>
       <c r="F76" s="1">
         <v>1.7699119999999999</v>
       </c>
@@ -6704,12 +6404,8 @@
       <c r="C77" s="1">
         <v>4.3049330000000001</v>
       </c>
-      <c r="D77" s="1">
-        <v>4.5761219999999998</v>
-      </c>
-      <c r="E77" s="1">
-        <v>4.7675840000000003</v>
-      </c>
+      <c r="D77" s="1"/>
+      <c r="E77" s="1"/>
       <c r="F77" s="1">
         <v>1.093089</v>
       </c>
@@ -6774,12 +6470,8 @@
       <c r="C78" s="1">
         <v>2.9720279999999999</v>
       </c>
-      <c r="D78" s="1">
-        <v>4.3730089999999997</v>
-      </c>
-      <c r="E78" s="1">
-        <v>4.9970319999999999</v>
-      </c>
+      <c r="D78" s="1"/>
+      <c r="E78" s="1"/>
       <c r="F78" s="1">
         <v>1.1988719999999999</v>
       </c>
@@ -6844,12 +6536,8 @@
       <c r="C79" s="1">
         <v>2.772964</v>
       </c>
-      <c r="D79" s="1">
-        <v>4.0629470000000003</v>
-      </c>
-      <c r="E79" s="1">
-        <v>4.8376989999999997</v>
-      </c>
+      <c r="D79" s="1"/>
+      <c r="E79" s="1"/>
       <c r="F79" s="1">
         <v>0.76869319999999997</v>
       </c>
@@ -6914,12 +6602,8 @@
       <c r="C80" s="1">
         <v>2.5817559999999999</v>
       </c>
-      <c r="D80" s="1">
-        <v>3.824363</v>
-      </c>
-      <c r="E80" s="1">
-        <v>4.6925030000000003</v>
-      </c>
+      <c r="D80" s="1"/>
+      <c r="E80" s="1"/>
       <c r="F80" s="1">
         <v>1.1999999999999999E-14</v>
       </c>
@@ -6984,12 +6668,8 @@
       <c r="C81" s="1">
         <v>2.4505590000000002</v>
       </c>
-      <c r="D81" s="1">
-        <v>3.9551189999999998</v>
-      </c>
-      <c r="E81" s="1">
-        <v>4.358174</v>
-      </c>
+      <c r="D81" s="1"/>
+      <c r="E81" s="1"/>
       <c r="F81" s="1">
         <v>0.80223230000000001</v>
       </c>

--- a/Data_applied_inflation.xlsx
+++ b/Data_applied_inflation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26B6C700-73BC-4B1B-AE3E-6827F20AAE40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA83C490-248D-4776-AB95-1584D29A01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1536,7 +1536,7 @@
   <dimension ref="A1:BK210"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2:E81"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1582,9 +1582,7 @@
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
-      <c r="F2" s="1">
-        <v>15.16057</v>
-      </c>
+      <c r="F2" s="1"/>
       <c r="G2" s="1">
         <v>20.308910000000001</v>
       </c>
@@ -1646,9 +1644,7 @@
       <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
-      <c r="F3" s="1">
-        <v>13.22373</v>
-      </c>
+      <c r="F3" s="1"/>
       <c r="G3" s="1">
         <v>24.2866</v>
       </c>
@@ -1710,9 +1706,7 @@
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
-      <c r="F4" s="1">
-        <v>10.3377</v>
-      </c>
+      <c r="F4" s="1"/>
       <c r="G4" s="1">
         <v>26.565809999999999</v>
       </c>
@@ -1774,9 +1768,7 @@
       <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
-      <c r="F5" s="1">
-        <v>8.664021</v>
-      </c>
+      <c r="F5" s="1"/>
       <c r="G5" s="1">
         <v>25.311319999999998</v>
       </c>
@@ -1838,9 +1830,7 @@
       <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
-      <c r="F6" s="1">
-        <v>9.0142670000000003</v>
-      </c>
+      <c r="F6" s="1"/>
       <c r="G6" s="1">
         <v>22.45288</v>
       </c>
@@ -1902,9 +1892,7 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
-      <c r="F7" s="1">
-        <v>9.4065659999999998</v>
-      </c>
+      <c r="F7" s="1"/>
       <c r="G7" s="1">
         <v>15.972049999999999</v>
       </c>
@@ -1966,9 +1954,7 @@
       <c r="C8" s="1"/>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
-      <c r="F8" s="1">
-        <v>9.6814490000000006</v>
-      </c>
+      <c r="F8" s="1"/>
       <c r="G8" s="1">
         <v>13.65049</v>
       </c>
@@ -2030,9 +2016,7 @@
       <c r="C9" s="1"/>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
-      <c r="F9" s="1">
-        <v>9.4339619999999993</v>
-      </c>
+      <c r="F9" s="1"/>
       <c r="G9" s="1">
         <v>14.929510000000001</v>
       </c>
@@ -2094,9 +2078,7 @@
       <c r="C10" s="1"/>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
-      <c r="F10" s="1">
-        <v>9.3396790000000003</v>
-      </c>
+      <c r="F10" s="1"/>
       <c r="G10" s="1">
         <v>16.506799999999998</v>
       </c>
@@ -2158,9 +2140,7 @@
       <c r="C11" s="1"/>
       <c r="D11" s="1"/>
       <c r="E11" s="1"/>
-      <c r="F11" s="1">
-        <v>8.9440279999999994</v>
-      </c>
+      <c r="F11" s="1"/>
       <c r="G11" s="1">
         <v>17.409079999999999</v>
       </c>
@@ -2222,9 +2202,7 @@
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
-      <c r="F12" s="1">
-        <v>7.9726650000000001</v>
-      </c>
+      <c r="F12" s="1"/>
       <c r="G12" s="1">
         <v>16.575520000000001</v>
       </c>
@@ -2286,9 +2264,7 @@
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
-      <c r="F13" s="1">
-        <v>6.451613</v>
-      </c>
+      <c r="F13" s="1"/>
       <c r="G13" s="1">
         <v>13.07058</v>
       </c>
@@ -2350,9 +2326,7 @@
       <c r="C14" s="1"/>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
-      <c r="F14" s="1">
-        <v>4.6789990000000001</v>
-      </c>
+      <c r="F14" s="1"/>
       <c r="G14" s="1">
         <v>9.4964580000000005</v>
       </c>
@@ -2414,9 +2388,7 @@
       <c r="C15" s="1"/>
       <c r="D15" s="1"/>
       <c r="E15" s="1"/>
-      <c r="F15" s="1">
-        <v>4.0254240000000001</v>
-      </c>
+      <c r="F15" s="1"/>
       <c r="G15" s="1">
         <v>7.6796189999999998</v>
       </c>
@@ -2478,9 +2450,7 @@
       <c r="C16" s="1"/>
       <c r="D16" s="1"/>
       <c r="E16" s="1"/>
-      <c r="F16" s="1">
-        <v>4.377637</v>
-      </c>
+      <c r="F16" s="1"/>
       <c r="G16" s="1">
         <v>7.8491520000000001</v>
       </c>
@@ -2542,9 +2512,7 @@
       <c r="C17" s="1"/>
       <c r="D17" s="1"/>
       <c r="E17" s="1"/>
-      <c r="F17" s="1">
-        <v>3.7095090000000002</v>
-      </c>
+      <c r="F17" s="1"/>
       <c r="G17" s="1">
         <v>8.0917659999999998</v>
       </c>
@@ -2606,9 +2574,7 @@
       <c r="C18" s="1"/>
       <c r="D18" s="1"/>
       <c r="E18" s="1"/>
-      <c r="F18" s="1">
-        <v>3.0145529999999998</v>
-      </c>
+      <c r="F18" s="1"/>
       <c r="G18" s="1">
         <v>9.5820950000000007</v>
       </c>
@@ -2670,9 +2636,7 @@
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
-      <c r="F19" s="1">
-        <v>3.3095720000000002</v>
-      </c>
+      <c r="F19" s="1"/>
       <c r="G19" s="1">
         <v>10.58723</v>
       </c>
@@ -2734,9 +2698,7 @@
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
-      <c r="F20" s="1">
-        <v>3.5876709999999998</v>
-      </c>
+      <c r="F20" s="1"/>
       <c r="G20" s="1">
         <v>15.977919999999999</v>
       </c>
@@ -2798,9 +2760,7 @@
       <c r="C21" s="1"/>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
-      <c r="F21" s="1">
-        <v>4.987406</v>
-      </c>
+      <c r="F21" s="1"/>
       <c r="G21" s="1">
         <v>17.258970000000001</v>
       </c>
@@ -2862,9 +2822,7 @@
       <c r="C22" s="1"/>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1">
-        <v>7.2149340000000004</v>
-      </c>
+      <c r="F22" s="1"/>
       <c r="G22" s="1">
         <v>19.08409</v>
       </c>
@@ -2926,9 +2884,7 @@
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
-      <c r="F23" s="1">
-        <v>8.0827989999999996</v>
-      </c>
+      <c r="F23" s="1"/>
       <c r="G23" s="1">
         <v>21.548410000000001</v>
       </c>
@@ -2990,9 +2946,7 @@
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1">
-        <v>8.0975610000000007</v>
-      </c>
+      <c r="F24" s="1"/>
       <c r="G24" s="1">
         <v>16.358920000000001</v>
       </c>
@@ -3054,9 +3008,7 @@
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
-      <c r="F25" s="1">
-        <v>7.677543</v>
-      </c>
+      <c r="F25" s="1"/>
       <c r="G25" s="1">
         <v>15.279920000000001</v>
       </c>
@@ -3118,9 +3070,7 @@
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
-      <c r="F26" s="1">
-        <v>6.5882350000000001</v>
-      </c>
+      <c r="F26" s="1"/>
       <c r="G26" s="1">
         <v>12.702669999999999</v>
       </c>
@@ -3182,9 +3132,7 @@
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
-      <c r="F27" s="1">
-        <v>4.9247610000000002</v>
-      </c>
+      <c r="F27" s="1"/>
       <c r="G27" s="1">
         <v>11.70065</v>
       </c>
@@ -3246,9 +3194,7 @@
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
-      <c r="F28" s="1">
-        <v>4.1967509999999999</v>
-      </c>
+      <c r="F28" s="1"/>
       <c r="G28" s="1">
         <v>11.25713</v>
       </c>
@@ -3310,9 +3256,7 @@
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
-      <c r="F29" s="1">
-        <v>4.0998219999999996</v>
-      </c>
+      <c r="F29" s="1"/>
       <c r="G29" s="1">
         <v>11.903600000000001</v>
       </c>
@@ -3374,9 +3318,7 @@
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
-      <c r="F30" s="1">
-        <v>3.1346579999999999</v>
-      </c>
+      <c r="F30" s="1"/>
       <c r="G30" s="1">
         <v>11.12828</v>
       </c>
@@ -3438,9 +3380,7 @@
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
-      <c r="F31" s="1">
-        <v>2.6075620000000002</v>
-      </c>
+      <c r="F31" s="1"/>
       <c r="G31" s="1">
         <v>9.3526810000000005</v>
       </c>
@@ -3502,9 +3442,7 @@
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
-      <c r="F32" s="1">
-        <v>2.771763</v>
-      </c>
+      <c r="F32" s="1"/>
       <c r="G32" s="1">
         <v>7.9786049999999999</v>
       </c>
@@ -3566,9 +3504,7 @@
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
-      <c r="F33" s="1">
-        <v>2.4828769999999998</v>
-      </c>
+      <c r="F33" s="1"/>
       <c r="G33" s="1">
         <v>6.1670660000000002</v>
       </c>
@@ -3630,9 +3566,7 @@
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1">
-        <v>2.1404109999999998</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1">
         <v>4.9641590000000004</v>
       </c>
@@ -3694,9 +3628,7 @@
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1">
-        <v>2.244812</v>
-      </c>
+      <c r="F35" s="1"/>
       <c r="G35" s="1">
         <v>3.7839520000000002</v>
       </c>
@@ -3758,9 +3690,7 @@
       <c r="C36" s="1"/>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1">
-        <v>1.474926</v>
-      </c>
+      <c r="F36" s="1"/>
       <c r="G36" s="1">
         <v>4.6439630000000003</v>
       </c>
@@ -3822,9 +3752,7 @@
       <c r="C37" s="1"/>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1">
-        <v>1.670844</v>
-      </c>
+      <c r="F37" s="1"/>
       <c r="G37" s="1">
         <v>5.0507119999999999</v>
       </c>
@@ -3886,9 +3814,7 @@
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
-      <c r="F38" s="1">
-        <v>2.430847</v>
-      </c>
+      <c r="F38" s="1"/>
       <c r="G38" s="1">
         <v>5.1574759999999999</v>
       </c>
@@ -3950,9 +3876,7 @@
       <c r="C39" s="1"/>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
-      <c r="F39" s="1">
-        <v>2.0298259999999999</v>
-      </c>
+      <c r="F39" s="1"/>
       <c r="G39" s="1">
         <v>5.1443409999999998</v>
       </c>
@@ -4014,9 +3938,7 @@
       <c r="C40" s="1"/>
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
-      <c r="F40" s="1">
-        <v>2.2425250000000001</v>
-      </c>
+      <c r="F40" s="1"/>
       <c r="G40" s="1">
         <v>4.7140040000000001</v>
       </c>
@@ -4078,9 +4000,7 @@
       <c r="C41" s="1"/>
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
-      <c r="F41" s="1">
-        <v>2.3007399999999998</v>
-      </c>
+      <c r="F41" s="1"/>
       <c r="G41" s="1">
         <v>4.8371370000000002</v>
       </c>
@@ -4142,9 +4062,7 @@
       <c r="C42" s="1"/>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
-      <c r="F42" s="1">
-        <v>2.0049100000000002</v>
-      </c>
+      <c r="F42" s="1"/>
       <c r="G42" s="1">
         <v>5.5029469999999998</v>
       </c>
@@ -4206,9 +4124,7 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
-      <c r="F43" s="1">
-        <v>2.1518470000000001</v>
-      </c>
+      <c r="F43" s="1"/>
       <c r="G43" s="1">
         <v>6.9687510000000001</v>
       </c>
@@ -4270,9 +4186,7 @@
       <c r="C44" s="1"/>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
-      <c r="F44" s="1">
-        <v>2.3558080000000001</v>
-      </c>
+      <c r="F44" s="1"/>
       <c r="G44" s="1">
         <v>6.3020050000000003</v>
       </c>
@@ -4334,9 +4248,7 @@
       <c r="C45" s="1"/>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
-      <c r="F45" s="1">
-        <v>1.6465860000000001</v>
-      </c>
+      <c r="F45" s="1"/>
       <c r="G45" s="1">
         <v>5.5105060000000003</v>
       </c>
@@ -4398,9 +4310,7 @@
       <c r="C46" s="1"/>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1">
-        <v>1.5643800000000001</v>
-      </c>
+      <c r="F46" s="1"/>
       <c r="G46" s="1">
         <v>4.929322</v>
       </c>
@@ -4462,9 +4372,7 @@
       <c r="C47" s="1"/>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1">
-        <v>0.87440379999999995</v>
-      </c>
+      <c r="F47" s="1"/>
       <c r="G47" s="1">
         <v>2.7680449999999999</v>
       </c>
@@ -4526,9 +4434,7 @@
       <c r="C48" s="1"/>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
-      <c r="F48" s="1">
-        <v>0.23809520000000001</v>
-      </c>
+      <c r="F48" s="1"/>
       <c r="G48" s="1">
         <v>2.621461</v>
       </c>
@@ -4590,9 +4496,7 @@
       <c r="C49" s="1"/>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
-      <c r="F49" s="1">
-        <v>-0.23706050000000001</v>
-      </c>
+      <c r="F49" s="1"/>
       <c r="G49" s="1">
         <v>3.4434779999999998</v>
       </c>
@@ -4654,9 +4558,7 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
-      <c r="F50" s="1">
-        <v>-0.82938389999999995</v>
-      </c>
+      <c r="F50" s="1"/>
       <c r="G50" s="1">
         <v>3.9723660000000001</v>
       </c>
@@ -4718,9 +4620,7 @@
       <c r="C51" s="1"/>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
-      <c r="F51" s="1">
-        <v>0.15760440000000001</v>
-      </c>
+      <c r="F51" s="1"/>
       <c r="G51" s="1">
         <v>4.1936580000000001</v>
       </c>
@@ -4782,9 +4682,7 @@
       <c r="C52" s="1"/>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
-      <c r="F52" s="1">
-        <v>0.4354711</v>
-      </c>
+      <c r="F52" s="1"/>
       <c r="G52" s="1">
         <v>4.3256129999999997</v>
       </c>
@@ -4846,9 +4744,7 @@
       <c r="C53" s="1"/>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
-      <c r="F53" s="1">
-        <v>0.75247529999999996</v>
-      </c>
+      <c r="F53" s="1"/>
       <c r="G53" s="1">
         <v>4.1022189999999998</v>
       </c>
@@ -4910,9 +4806,7 @@
       <c r="C54" s="1"/>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
-      <c r="F54" s="1">
-        <v>0.75667070000000003</v>
-      </c>
+      <c r="F54" s="1"/>
       <c r="G54" s="1">
         <v>3.1763349999999999</v>
       </c>
@@ -4974,9 +4868,7 @@
       <c r="C55" s="1"/>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
-      <c r="F55" s="1">
-        <v>0.1966955</v>
-      </c>
+      <c r="F55" s="1"/>
       <c r="G55" s="1">
         <v>3.7854860000000001</v>
       </c>
@@ -5038,9 +4930,7 @@
       <c r="C56" s="1"/>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
-      <c r="F56" s="1">
-        <v>0.59124949999999998</v>
-      </c>
+      <c r="F56" s="1"/>
       <c r="G56" s="1">
         <v>4.6269280000000004</v>
       </c>
@@ -5102,9 +4992,7 @@
       <c r="C57" s="1"/>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
-      <c r="F57" s="1">
-        <v>1.061321</v>
-      </c>
+      <c r="F57" s="1"/>
       <c r="G57" s="1">
         <v>5.0057020000000003</v>
       </c>
@@ -5166,9 +5054,7 @@
       <c r="C58" s="1"/>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
-      <c r="F58" s="1">
-        <v>1.067194</v>
-      </c>
+      <c r="F58" s="1"/>
       <c r="G58" s="1">
         <v>5.8</v>
       </c>
@@ -5230,9 +5116,7 @@
       <c r="C59" s="1"/>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
-      <c r="F59" s="1">
-        <v>2.7483309999999999</v>
-      </c>
+      <c r="F59" s="1"/>
       <c r="G59" s="1">
         <v>5.8</v>
       </c>
@@ -5294,9 +5178,7 @@
       <c r="C60" s="1"/>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
-      <c r="F60" s="1">
-        <v>2.742947</v>
-      </c>
+      <c r="F60" s="1"/>
       <c r="G60" s="1">
         <v>5.6</v>
       </c>
@@ -5358,9 +5240,7 @@
       <c r="C61" s="1"/>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
-      <c r="F61" s="1">
-        <v>2.6059899999999998</v>
-      </c>
+      <c r="F61" s="1"/>
       <c r="G61" s="1">
         <v>5.7</v>
       </c>
@@ -5422,9 +5302,7 @@
       <c r="C62" s="1"/>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
-      <c r="F62" s="1">
-        <v>3.5588579999999999</v>
-      </c>
+      <c r="F62" s="1"/>
       <c r="G62" s="1">
         <v>6.1</v>
       </c>
@@ -5486,9 +5364,7 @@
       <c r="C63" s="1"/>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
-      <c r="F63" s="1">
-        <v>2.560184</v>
-      </c>
+      <c r="F63" s="1"/>
       <c r="G63" s="1">
         <v>8</v>
       </c>
@@ -5550,9 +5426,7 @@
       <c r="C64" s="1"/>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
-      <c r="F64" s="1">
-        <v>2.555301</v>
-      </c>
+      <c r="F64" s="1"/>
       <c r="G64" s="1">
         <v>8.8000000000000007</v>
       </c>
@@ -5614,9 +5488,7 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
-      <c r="F65" s="1">
-        <v>3.601213</v>
-      </c>
+      <c r="F65" s="1"/>
       <c r="G65" s="1">
         <v>9.1999999999999993</v>
       </c>
@@ -5680,9 +5552,7 @@
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
-      <c r="F66" s="1">
-        <v>3.7386710000000001</v>
-      </c>
+      <c r="F66" s="1"/>
       <c r="G66" s="1">
         <v>8.4</v>
       </c>
@@ -5746,9 +5616,7 @@
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
-      <c r="F67" s="1">
-        <v>3.3904619999999999</v>
-      </c>
+      <c r="F67" s="1"/>
       <c r="G67" s="1">
         <v>7.7</v>
       </c>
@@ -5812,9 +5680,7 @@
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1">
-        <v>3.1982149999999998</v>
-      </c>
+      <c r="F68" s="1"/>
       <c r="G68" s="1">
         <v>7.3</v>
       </c>
@@ -5878,9 +5744,7 @@
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1">
-        <v>2.7808269999999999</v>
-      </c>
+      <c r="F69" s="1"/>
       <c r="G69" s="1">
         <v>6.5</v>
       </c>
@@ -5944,9 +5808,7 @@
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
-      <c r="F70" s="1">
-        <v>1.8929739999999999</v>
-      </c>
+      <c r="F70" s="1"/>
       <c r="G70" s="1">
         <v>6.3</v>
       </c>
@@ -6010,9 +5872,7 @@
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
-      <c r="F71" s="1">
-        <v>2.27027</v>
-      </c>
+      <c r="F71" s="1"/>
       <c r="G71" s="1">
         <v>5</v>
       </c>
@@ -6076,9 +5936,7 @@
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
-      <c r="F72" s="1">
-        <v>1.8018019999999999</v>
-      </c>
+      <c r="F72" s="1"/>
       <c r="G72" s="1">
         <v>4</v>
       </c>
@@ -6142,9 +6000,7 @@
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
-      <c r="F73" s="1">
-        <v>0.96119619999999995</v>
-      </c>
+      <c r="F73" s="1"/>
       <c r="G73" s="1">
         <v>3.3</v>
       </c>
@@ -6208,9 +6064,7 @@
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
-      <c r="F74" s="1">
-        <v>1.321901</v>
-      </c>
+      <c r="F74" s="1"/>
       <c r="G74" s="1">
         <v>3.1</v>
       </c>
@@ -6274,9 +6128,7 @@
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
-      <c r="F75" s="1">
-        <v>0.84566600000000003</v>
-      </c>
+      <c r="F75" s="1"/>
       <c r="G75" s="1">
         <v>2.2999999999999998</v>
       </c>
@@ -6340,9 +6192,7 @@
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
-      <c r="F76" s="1">
-        <v>1.7699119999999999</v>
-      </c>
+      <c r="F76" s="1"/>
       <c r="G76" s="1">
         <v>2.5</v>
       </c>
@@ -6406,9 +6256,7 @@
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
-      <c r="F77" s="1">
-        <v>1.093089</v>
-      </c>
+      <c r="F77" s="1"/>
       <c r="G77" s="1">
         <v>2.2000000000000002</v>
       </c>

--- a/Data_applied_inflation.xlsx
+++ b/Data_applied_inflation.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\2021-22\ENSAE_papiers\Cours\S2\2.1 . Applied Macroeconometrics\applied_macroeconometrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA83C490-248D-4776-AB95-1584D29A01DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8CAC51E-A86B-4E62-8706-42F9C0DFF28C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1535,8 +1535,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BK210"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="A164" workbookViewId="0">
+      <selection activeCell="G181" sqref="G181"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -13591,9 +13591,7 @@
       <c r="F182" s="1">
         <v>0.66867270000000001</v>
       </c>
-      <c r="G182" s="1">
-        <v>1.7</v>
-      </c>
+      <c r="G182" s="1"/>
       <c r="H182" s="1">
         <v>2.118652</v>
       </c>
@@ -13661,9 +13659,7 @@
       <c r="F183" s="1">
         <v>0.13342229999999999</v>
       </c>
-      <c r="G183" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="G183" s="1"/>
       <c r="H183" s="1">
         <v>0.3642956</v>
       </c>
@@ -13731,9 +13727,7 @@
       <c r="F184" s="1">
         <v>3.3344449999999998E-2</v>
       </c>
-      <c r="G184" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="G184" s="1"/>
       <c r="H184" s="1">
         <v>1.222386</v>
       </c>
@@ -13801,9 +13795,7 @@
       <c r="F185" s="1">
         <v>-0.92899799999999999</v>
       </c>
-      <c r="G185" s="1">
-        <v>0.8</v>
-      </c>
+      <c r="G185" s="1"/>
       <c r="H185" s="1">
         <v>1.2394879999999999</v>
       </c>
@@ -13871,9 +13863,7 @@
       <c r="F186" s="1">
         <v>-0.53138490000000005</v>
       </c>
-      <c r="G186" s="1">
-        <v>0.9</v>
-      </c>
+      <c r="G186" s="1"/>
       <c r="H186" s="1">
         <v>1.898514</v>
       </c>
@@ -13941,9 +13931,7 @@
       <c r="F187" s="1">
         <v>-0.73284479999999996</v>
       </c>
-      <c r="G187" s="1">
-        <v>2.1</v>
-      </c>
+      <c r="G187" s="1"/>
       <c r="H187" s="1">
         <v>4.8489449999999996</v>
       </c>
@@ -14011,9 +13999,7 @@
       <c r="F188" s="1">
         <v>-0.1666667</v>
       </c>
-      <c r="G188" s="1">
-        <v>2.7</v>
-      </c>
+      <c r="G188" s="1"/>
       <c r="H188" s="1">
         <v>5.335693</v>
       </c>
@@ -14081,9 +14067,7 @@
       <c r="F189" s="1">
         <v>0.50234429999999997</v>
       </c>
-      <c r="G189" s="1">
-        <v>4.4000000000000004</v>
-      </c>
+      <c r="G189" s="1"/>
       <c r="H189" s="1">
         <v>6.6891059999999998</v>
       </c>
